--- a/data/trans_dic/P36$pan-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,68; 78,89</t>
+          <t>73,7; 78,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,86; 82,02</t>
+          <t>76,83; 82,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>80,76; 86,32</t>
+          <t>80,76; 86,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>77,93; 82,32</t>
+          <t>78,03; 82,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,83; 86,73</t>
+          <t>82,48; 86,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>86,21; 90,31</t>
+          <t>86,2; 90,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,89; 80,14</t>
+          <t>76,75; 80,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>81,01; 84,23</t>
+          <t>80,9; 84,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,51; 87,95</t>
+          <t>84,71; 88,06</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,65; 78,62</t>
+          <t>74,54; 78,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>78,38; 82,06</t>
+          <t>78,31; 81,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,79; 85,17</t>
+          <t>81,78; 85,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,5; 79,61</t>
+          <t>75,67; 79,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,78; 83,58</t>
+          <t>79,97; 83,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>84,78; 87,62</t>
+          <t>84,83; 87,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>75,52; 78,53</t>
+          <t>75,69; 78,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>79,72; 82,31</t>
+          <t>79,5; 82,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>83,9; 86,09</t>
+          <t>83,78; 86,06</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,78; 79,54</t>
+          <t>72,22; 79,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>76,92; 84,42</t>
+          <t>77,37; 84,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,8; 91,42</t>
+          <t>86,01; 91,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>70,63; 78,78</t>
+          <t>70,18; 78,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>77,55; 85,35</t>
+          <t>77,48; 85,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>88,26; 92,93</t>
+          <t>88,32; 93,12</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>72,46; 78,24</t>
+          <t>72,21; 77,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,62; 84,19</t>
+          <t>78,31; 83,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>87,96; 91,81</t>
+          <t>88,06; 91,81</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,97; 77,83</t>
+          <t>74,98; 77,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,76; 81,62</t>
+          <t>78,7; 81,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>82,97; 85,6</t>
+          <t>83,13; 85,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,73; 79,51</t>
+          <t>76,77; 79,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>81,61; 84,35</t>
+          <t>81,64; 84,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>86,6; 88,77</t>
+          <t>86,55; 88,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>76,21; 78,31</t>
+          <t>76,3; 78,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>80,63; 82,56</t>
+          <t>80,61; 82,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>85,22; 86,96</t>
+          <t>85,23; 87,05</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, pan, tostadas, galletas, cereales, bollería, ...</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>792</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>722</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>640</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1053</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>784</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1823</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1775</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1424</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>786069</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>774630</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>629319</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1051349</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1133501</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>878631</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>1837418</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1908131</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1507950</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>757454; 811243</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>747319; 799574</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>607792; 648870</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1024579; 1079705</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1101706; 1160046</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>856341; 898190</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1796589; 1874661</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1867520; 1942864</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1479065; 1537562</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>1264</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1487</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1204</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1329</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>1643</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>2468</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>2816</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3276</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1296831</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1573033</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1733555</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1230158</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1435794</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1715734</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2526989</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>3008827</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3449289</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1261607; 1331799</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1535675; 1606535</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1696369; 1763237</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>1199886; 1264637</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1403433; 1469456</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1684891; 1744963</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2481082; 2572077</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>2954366; 3055533</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>3401850; 3494385</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>416877</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>389343</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>486015</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>355499</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>499108</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>772377</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>763064</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>985124</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>396925; 436883</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>371502; 408008</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>470352; 501611</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>334367; 375543</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>354465; 390172</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>485006; 511372</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>740927; 798071</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>734269; 784306</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>965137; 1006313</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2564</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2720</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2719</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>2903</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5283</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5623</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2499777</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>2737006</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2848889</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2637007</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>2943017</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3093474</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5136784</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5680021</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5942364</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2451660; 2546062</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2686844; 2782882</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2804402; 2894620</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>2591023; 2683720</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2896717; 2988904</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3054356; 3134124</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5070013; 5205592</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5612155; 5746297</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5883234; 6008745</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>